--- a/PCAcombined_predicted_variables_matrix_12.xlsx
+++ b/PCAcombined_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358511378366234</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358354290724646</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358314955865634</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358335916044248</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358349498402337</v>
+        <v>0.5358520981844069</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5361031218335682</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361208758019412</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361238115207971</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.536122042406421</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361203641420795</v>
+        <v>0.5361253815128129</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361059964091872</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361377311930698</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361321436518323</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361279548969207</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361248554920304</v>
+        <v>0.5361315627977195</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358989035078022</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359402547183145</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.535942908828043</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359421950601595</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359408731367746</v>
+        <v>0.5359438814340115</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360663856700708</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360670072164303</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5360894149311081</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360945942906258</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360958389895617</v>
+        <v>0.5360808891105905</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357378474409336</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357302252291709</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357353192657535</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357391075246254</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.535740421142726</v>
+        <v>0.5357792523728064</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359610616524283</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359398591407987</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359202769438286</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359095965209136</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359035737840833</v>
+        <v>0.5359338251999984</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357837029301934</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357870454382042</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357823905628414</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357802198311218</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357785270129117</v>
+        <v>0.5358233293696781</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362222568724396</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362193521221051</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362115163194648</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362072494656082</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362048327514223</v>
+        <v>0.5362585309526332</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358088915496628</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358581966925674</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358670988869703</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358692626192223</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358686810631583</v>
+        <v>0.5358843192449099</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358700538441903</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359286253233591</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359330118256053</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359285775995121</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359246284174489</v>
+        <v>0.5359322048796331</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.5359204894007061</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359468977814407</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359523635050794</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359496818644225</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359466504732666</v>
+        <v>0.5359810937439389</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5358879283904764</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359844198597392</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5359993242457637</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359978669533313</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359948391427857</v>
+        <v>0.5360037721454164</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.53584079114334</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5359069260954225</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5359005643752359</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358930443561222</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358877241435178</v>
+        <v>0.5359438380166009</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.536077889195792</v>
       </c>
       <c r="B16" t="n">
-        <v>0.53615368279658</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361468699456823</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361380476805613</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361323368017671</v>
+        <v>0.5361800498405025</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.536218786515112</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5362206816186713</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5362142595804453</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5362082040261869</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5362049238568336</v>
+        <v>0.5362377038726575</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.53585540044715</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358802110556881</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358735068157722</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358660935318188</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358614212683106</v>
+        <v>0.5359125773651687</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360201566975152</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5361061435566017</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361355559918285</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361387959663476</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361375259213798</v>
+        <v>0.5361740072371781</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360870097175778</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361136906315075</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360955502162157</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360837284453492</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360768108863716</v>
+        <v>0.536115365654024</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5362060377417945</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362710607271909</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362683882804771</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362610882021619</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362563039047327</v>
+        <v>0.5362741749476673</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.536079393171047</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361138100442737</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361207839326576</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.536117236596353</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361140147062899</v>
+        <v>0.5361266454346123</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5358042291441848</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358698090346083</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358760831851411</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.535871061013605</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358664555254624</v>
+        <v>0.535869128559784</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5362722357240824</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5370767303871018</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5369047881529505</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5368269970751622</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5367884434393645</v>
+        <v>0.5365745340399973</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5363382280055734</v>
       </c>
       <c r="B25" t="n">
-        <v>0.536223707705764</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361941255221523</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361830021267283</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361797264898652</v>
+        <v>0.5362196256003056</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5360056366389865</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5361042855920836</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5361028710205628</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5360902464874656</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5360823466084279</v>
+        <v>0.5360270971231149</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360648782256924</v>
       </c>
       <c r="B27" t="n">
-        <v>0.535990561748303</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5359969810800713</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5360012632596617</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5360048371686074</v>
+        <v>0.5359982280483988</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5364456336666197</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5365033973210983</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364719510575008</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364708484236581</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364737174574251</v>
+        <v>0.5364446152533762</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5362915442556351</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5367864187916209</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5368287386361702</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5368522857510036</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5368646715603069</v>
+        <v>0.5368565289456563</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5364193538102674</v>
       </c>
       <c r="B30" t="n">
-        <v>0.536364253725829</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.536357988692106</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363586622445153</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.536361604899543</v>
+        <v>0.5363883454537974</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.535809003050725</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5356978807194647</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5357270808750525</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5357343421412254</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357373884328368</v>
+        <v>0.535752665653758</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363676023117095</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362920383091617</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362985685159801</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.536305381096512</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363104183437638</v>
+        <v>0.5363445525237789</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.536407550713789</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363959579769787</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364130265141855</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364196374035926</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364232010646223</v>
+        <v>0.5364671109569207</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355927487147685</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5355328466937189</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5355005554385454</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5354941393199634</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354924955967543</v>
+        <v>0.5355361557476135</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364563412812927</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364666621693865</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364655729220321</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364659782420284</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364664947191976</v>
+        <v>0.5364735763237223</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364776569578508</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364490283304273</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364454638187058</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364468108482485</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364482680654952</v>
+        <v>0.5364701690779333</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.536469027481791</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364655627671839</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364442786849873</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.536436453353011</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.536433064022057</v>
+        <v>0.5364594417445293</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363900358453962</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363513057156658</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.536360474494789</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363653813673317</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363680640393618</v>
+        <v>0.5363864666278401</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.536376238332107</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363601794689267</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363497354022713</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363463720872661</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363449405975519</v>
+        <v>0.5363774250440572</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364555740043604</v>
       </c>
       <c r="B40" t="n">
-        <v>0.536452944106814</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364479798560948</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364455302670491</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364443167815873</v>
+        <v>0.5364619162489991</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363422738356813</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363286210040956</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363223806335242</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.536320622020377</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363202236373004</v>
+        <v>0.5363296301352112</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.5363813682538366</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363683788830635</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363627820771112</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363619354226786</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363618855782109</v>
+        <v>0.5363961333716584</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364190714641763</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363958984664553</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.536390332629372</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5363885520644754</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363879210281073</v>
+        <v>0.5364123154547034</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363889092904508</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364018266306009</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363957670469818</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363940298798657</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.536393400674209</v>
+        <v>0.536430464155583</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364799544314096</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364406894849822</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364193263203694</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.536413923736797</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364122535215545</v>
+        <v>0.5364652624733955</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5352348670201899</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352357376851145</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5352175150644918</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.535206939331183</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5351991061603959</v>
+        <v>0.5352893164556545</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5354048463903507</v>
       </c>
       <c r="B47" t="n">
-        <v>0.535393857064598</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.535382114108518</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353753318935576</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353699021809302</v>
+        <v>0.5354542095538185</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354900165539124</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354747543061643</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354665515951706</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354612481999337</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354564476654475</v>
+        <v>0.535538073074565</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.535614617855984</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5356142352237696</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5356056947389093</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5356002117458697</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355956272194774</v>
+        <v>0.5356630004146474</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5359124378577134</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359350717583943</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359333751343053</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359311387257255</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359287316686385</v>
+        <v>0.5359819413301158</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5355186013273555</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5355052822876105</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354880297692211</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354802181659802</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354747928488167</v>
+        <v>0.5355404112558795</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5355186013273555</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5355052822876105</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354880297692211</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354802181659802</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354747928488167</v>
+        <v>0.5355404112558795</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5353553827432054</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5353207917729629</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5353092045499324</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5353035744408091</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352984936736218</v>
+        <v>0.535399759540094</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358847963456611</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358877040644715</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358798782359161</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358753830784259</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358718998846558</v>
+        <v>0.5359288348372183</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353899159179638</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353686332664733</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353670338203945</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353628632865335</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353581920898335</v>
+        <v>0.5354384092241535</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.535428782607168</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354566861399301</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354430093904495</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354334015393474</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354264034169635</v>
+        <v>0.5354953462195856</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5354033259027973</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5354051200332591</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353940170645342</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353852854394321</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353787754878584</v>
+        <v>0.5354766311586187</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352907331985872</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353219142481231</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5353108986618186</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5353033942115912</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352977203088508</v>
+        <v>0.5353672695719397</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5355066239001023</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355206133684919</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5355070795724588</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354995246608266</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354940655229286</v>
+        <v>0.5355580080651564</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.535729270150872</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357257392819214</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357163220620134</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357109490912989</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357073144586846</v>
+        <v>0.535748103811355</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362081917632507</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362063539270879</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5362026903438498</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5362007438775653</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361994059043066</v>
+        <v>0.5362405232292345</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352583788264769</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351934223934667</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5352179053482101</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5352205079772312</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5352184712553074</v>
+        <v>0.5353252642207275</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357360659598552</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357106253822325</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356760827786747</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356617191537694</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356542169383712</v>
+        <v>0.5356806591750179</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355147898934997</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354531076327603</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354577782456478</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354592276024981</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354583652139782</v>
+        <v>0.5355296329918838</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359457261332295</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359729224960681</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359573222905234</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359490063787242</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.535944112267509</v>
+        <v>0.5359815553470092</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5354920275684374</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354758304912435</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.535487216404208</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.535485360831881</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354818685925695</v>
+        <v>0.5355506599941712</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.535408742760202</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5354973281220198</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354933961527518</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354849472415605</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354780656811665</v>
+        <v>0.5355572392278075</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9226123571199663</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9378431070260186</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9458187768636394</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9525844703682832</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9585635660051375</v>
+        <v>-0.9257269429461443</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9395320664993336</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9572673646096371</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9639659697599708</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9702935575312999</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.9760960293052138</v>
+        <v>-0.9408744060606359</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9290875233417144</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9394230708582335</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9478867178318047</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.955005659184711</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9611656562402914</v>
+        <v>-0.9293067876751898</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.942154517304673</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9521628033147662</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.9591410140574032</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.965762629879151</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.97173273931785</v>
+        <v>-0.9359952706554212</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9512523445268786</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9670316245736112</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.9739097595184991</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.9800913801723833</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.9857931475276261</v>
+        <v>-0.9533594734307325</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9074631242882003</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9195656351462391</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9289988742358666</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9363536816398631</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9425893660913836</v>
+        <v>-0.9121797579703461</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9014293506909281</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.909921076427468</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9189651182459634</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9263511865382535</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9326363564780743</v>
+        <v>-0.9037428085424467</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9076968302793076</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9274929716688245</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9359850255464751</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.943098064828568</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9491970913806929</v>
+        <v>-0.9166929655827136</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9263484397669567</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9431651063379275</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9491970992211073</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9555309897017054</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9613563682564942</v>
+        <v>-0.925722224569168</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.936354941969793</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.949870892993153</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9591950418899531</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9667219493181697</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9730871771612964</v>
+        <v>-0.9411795092178959</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9498496321483962</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9526198403122309</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9604762983507517</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9678463493124315</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9742491572594298</v>
+        <v>-0.9473793374489657</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9560795256723041</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9655653516492474</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.9731227273577162</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.9800972546856392</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.9862857263373457</v>
+        <v>-0.9540842832509324</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9421910294398312</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9528573096464811</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9603492163017415</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.967403883951504</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9736266578145149</v>
+        <v>-0.9427247121726454</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9414329925488134</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9542702667443286</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.959236022927914</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9652661348932512</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9709767613437391</v>
+        <v>-0.9373759742920627</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9502409427554073</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9551388619442736</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9645796379161948</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9717992951016106</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.9780303044365593</v>
+        <v>-0.9545896106346441</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9533230451110796</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9584177095396879</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9649007090002434</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.971502840689666</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.9775506463782904</v>
+        <v>-0.9473322673645219</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9407295763558557</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9543095054000207</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9628012508267426</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9702931091793537</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9767016724425557</v>
+        <v>-0.9440835030805188</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9470079832752141</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9542323290370648</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9626613705334356</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9699926805847039</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.976311637980345</v>
+        <v>-0.945844278758786</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9650999023904586</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9742495557681755</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.9806851375364755</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.9873339670940371</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.9934225596366377</v>
+        <v>-0.9621975635519951</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.9391140363924408</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9479548124394443</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9557679507756749</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.962927904610933</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9692099491276148</v>
+        <v>-0.9406161997198682</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-1.062978322557127</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.048707644824235</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.002368525737123</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.022170983220294</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.042972544233163</v>
+        <v>-1.043629577432117</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.127224641398357</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.663477558163752</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.540594842465013</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.477071197358536</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.445725702780076</v>
+        <v>-3.181696169628585</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.145216929019593</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.067682058103431</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.058342944026547</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.059696872536926</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.063116645441325</v>
+        <v>-1.089974105668263</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.879458928413107</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.632630929918194</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.840732301366936</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.952136855093388</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.018385544907844</v>
+        <v>-5.587373431330612</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.7060888233423629</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7963456785529216</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.7466734847350909</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.7295043889842163</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7258158186137935</v>
+        <v>-0.692786368516467</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-1.021186168779688</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.278116383074461</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.047505885144675</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.013133901258767</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.010101629239821</v>
+        <v>-0.8752416064801796</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.233690890171866</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.215545470289074</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.214632580048081</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.21398135948865</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.21790750885454</v>
+        <v>-1.194261177469256</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.06859810125001098</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.6196389621759503</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8304961198407347</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.9184538050079138</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9589561821431496</v>
+        <v>-0.3802624711459494</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.353566683456924</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.405856079816516</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.488465780147918</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.497364251189184</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.499900349745225</v>
+        <v>-1.428006507866484</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_12.xlsx
+++ b/PCAcombined_predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358520981844069</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5359090737632316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.535980295849646</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361253815128129</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361850890850043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362561627366438</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361315627977195</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361909258178709</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362618418855553</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359438814340115</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5360059437296598</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360786234462899</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360808891105905</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361465245897584</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362195374144093</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357792523728064</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358343782393685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5359025977210764</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359338251999984</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.535984495999821</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360497012702798</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358233293696781</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358753573168764</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359413390728655</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362585309526332</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5363061155292045</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363692589248583</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358843192449099</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359440768248825</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360145859486808</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359322048796331</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.535994265186907</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360659812384025</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359810937439389</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360375807196278</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5361048885384021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5360037721454164</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360665283938139</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361376235694127</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359438380166009</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359971784498178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360638476600297</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361800498405025</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362345452922036</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5363009927307001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5362377038726575</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362892683364049</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5363582235059834</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5359125773651687</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359639779740383</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.536030346741757</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361740072371781</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.536237297112207</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5363088238075359</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.536115365654024</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361716448267354</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362397353951667</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.5362741749476673</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363343547097345</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5364041373037468</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361266454346123</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361858986117597</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362561454692891</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.535869128559784</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5359336981521733</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5360062119921901</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5365745340399973</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5366613297552119</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5367659253759099</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5362196256003056</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362530812265929</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5363106742175711</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5360270971231149</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360994730089086</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361779197939506</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359982280483988</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360520214457555</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361208600651588</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364446152533762</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364969756887757</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365679224563363</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5368565289456563</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5369050968755794</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.53698717755001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5363883454537974</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5364347542773001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5365021229198293</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.535752665653758</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.535805048585555</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.535869822649636</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5363445525237789</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363916607241614</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364557399223078</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364671109569207</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365146320625892</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5365794583477764</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355361557476135</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355738480567589</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356346057533382</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364735763237223</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365298065065692</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365998141039315</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364701690779333</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365218239607346</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365892066389532</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364594417445293</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365079435619894</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365731265591701</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363864666278401</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364397108785377</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365078983717426</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363774250440572</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364279214971415</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364936643660576</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364619162489991</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365162691005216</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365839954169757</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.5363296301352112</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363854842894302</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364552893998324</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363961333716584</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364448256308287</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365107062304321</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364123154547034</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364629805696116</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365296945234072</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.536430464155583</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364816679616681</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365479253890019</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364652624733955</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365088094383542</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365708022209661</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352893164556545</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353356617092824</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.535397796644498</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354542095538185</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5355002235085965</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355623390063802</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.535538073074565</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355857121445775</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356489455579598</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356630004146474</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5357126318076125</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357772860758285</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359819413301158</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360348216405499</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.536101407438046</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355404112558795</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355882594521743</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356520840658973</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355404112558795</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355882594521743</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356520840658973</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.535399759540094</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354430394581984</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5355038855668125</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359288348372183</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359793542680613</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360446291060135</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354384092241535</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354876484324929</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355510780601552</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354953462195856</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355456307301185</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5356098244535883</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354766311586187</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5355219648839954</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.535583016338221</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353672695719397</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.535418765318448</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5354831734733201</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355580080651564</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5356091747049324</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356743845650163</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.535748103811355</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5358022435246529</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358693219637581</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362405232292345</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.536292335950217</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363584875801923</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353252642207275</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.535373645139633</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354343610767571</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356806591750179</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357327365472085</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357987165164825</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355296329918838</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355796653538121</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356437718277767</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359815553470092</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360349431915644</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5361021889253137</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355506599941712</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5356037568384967</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356676992994522</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355572392278075</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5356094163351758</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356736554510828</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9257269429461443</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9276780337810062</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9306013995420195</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9408744060606359</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9429460893137804</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9460827473238534</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9293067876751898</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9308000211916831</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9335514145396807</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9359952706554212</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9379932453933733</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9409655194532321</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9533594734307325</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9550693126192541</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9577828124763617</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9121797579703461</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9138531560212814</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9165981678568318</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9037428085424467</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9048762769707793</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9073255693406478</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9166929655827136</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9186383456467373</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.921580916780539</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.925722224569168</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9278471599619444</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9310968653294871</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9411795092178959</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9429714613910929</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9458794952459203</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9473793374489657</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9476980241705899</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9496880015641415</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9540842832509324</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9554891827014098</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9580902273921673</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9427247121726454</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9437480003884835</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9462847346176564</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9373759742920627</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9387410255668012</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9414711266652359</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9545896106346441</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9547951519258658</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9564161467174127</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9473322673645219</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9482389508289946</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9505776096241426</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9440835030805188</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9456477209336356</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9485225850421304</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.945844278758786</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9469393167527683</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9494684543004243</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9621975635519951</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9632147325951682</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9656181937004329</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.9406161997198682</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.941495663133569</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9438642137810042</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-1.043629577432117</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.037959214725633</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.043224216415014</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.181696169628585</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.222209281007278</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.258907909509832</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.089974105668263</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.063853430356408</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.055197148922561</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.587373431330612</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.432130072419697</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.333931269411759</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.692786368516467</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.6941202679068005</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.7008469021422562</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.8752416064801796</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8589704406525865</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8845230847699259</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.194261177469256</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.18637241814828</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.186842230727536</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3802624711459494</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.5682992874298634</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6889619891149261</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.428006507866484</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.463120580461099</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.476049584641756</v>
       </c>
     </row>
   </sheetData>
